--- a/loaded_influencer_data/natialbertin/natialbertin_video.xlsx
+++ b/loaded_influencer_data/natialbertin/natialbertin_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,78 +506,518 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@natialbertin/video/7489492171897310494</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>302</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@natialbertin/video/7489291733180730654</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>296</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@natialbertin/video/7489082220779474206</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>683</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@natialbertin/video/7488892582689344798</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>252</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1.587301587301587</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.587301587301587</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.3968253968253968</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2025-03-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@natialbertin/video/7488731664366046494</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>376</v>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Finally found the skin care routine that’s easy and perfect for my skin type.
+@Maelove Skincare
+#skincareroutine</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2.659574468085106</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.393617021276596</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.2659574468085106</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2025-03-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@natialbertin/video/7488540417680543006</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>414</v>
+      </c>
+      <c r="C7" t="n">
+        <v>42</v>
+      </c>
+      <c r="D7" t="n">
+        <v>18</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Pr packages of the week as a small content creator that just keep showing up.
+#prpackages #prpackageshaul</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>14.49275362318841</v>
+      </c>
+      <c r="I7" t="n">
+        <v>10.14492753623188</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4.347826086956522</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.7246376811594203</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2025-03-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@natialbertin/video/7488438128273837343</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>130</v>
+      </c>
+      <c r="C8" t="n">
+        <v>36</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Middle day iced coffee for a little pick me up.
+#coffeetiktok #coffeetiktok #coffee #middaycoffee #icedcoffee</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>31.53846153846154</v>
+      </c>
+      <c r="I8" t="n">
+        <v>27.69230769230769</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.846153846153846</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@natialbertin/video/7488151952442805534</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>583</v>
+      </c>
+      <c r="C9" t="n">
+        <v>45</v>
+      </c>
+      <c r="D9" t="n">
+        <v>13</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>The most unexpected haul, I went to return something and 44 dollars later this is what I got.
+#marshalls</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9.948542024013722</v>
+      </c>
+      <c r="I9" t="n">
+        <v>7.718696397941681</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.229845626072041</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.5145797598627788</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2025-02-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@natialbertin/video/7487971163994410271</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>320</v>
+      </c>
+      <c r="C10" t="n">
+        <v>37</v>
+      </c>
+      <c r="D10" t="n">
+        <v>7</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>The most unexpected haul, I went to return something and 44 dollars later this is what I got.
+#marshalls</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="I10" t="n">
+        <v>11.5625</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.1875</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@natialbertin/photo/7486872584458341663</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B11" t="n">
         <v>325</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C11" t="n">
         <v>23</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D11" t="n">
         <v>2</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>4</v>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Montessori toys from @Temu for under 15 dollars.
 #montessori #montessoritoddler #montessoritoys</t>
         </is>
       </c>
-      <c r="H2" t="n">
+      <c r="H11" t="n">
         <v>7.692307692307693</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I11" t="n">
         <v>7.076923076923077</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>0.6153846153846154</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L11" t="n">
         <v>1.230769230769231</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>2025-03-29</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@natialbertin/video/7486621525240466718</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B12" t="n">
         <v>372</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C12" t="n">
         <v>29</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D12" t="n">
         <v>13</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>4</v>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Mother’s Day photoshoot as a toddler mom.
 Results at the end.
@@ -585,2429 +1025,2020 @@
 #mothersdaygift</t>
         </is>
       </c>
-      <c r="H3" t="n">
+      <c r="H12" t="n">
         <v>11.29032258064516</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I12" t="n">
         <v>7.795698924731183</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>3.494623655913978</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L12" t="n">
         <v>1.075268817204301</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="inlineStr">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>2025-03-29</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@natialbertin/video/7486326119977848094</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B13" t="n">
         <v>314</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C13" t="n">
         <v>24</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D13" t="n">
         <v>8</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>1</v>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Look who’s is new at target.
 @ColourPop Cosmetics
 #targetproducts #targetfinds #targetmakeup</t>
         </is>
       </c>
-      <c r="H4" t="n">
+      <c r="H13" t="n">
         <v>10.19108280254777</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I13" t="n">
         <v>7.643312101910828</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>2.547770700636943</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L13" t="n">
         <v>0.3184713375796179</v>
       </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="inlineStr">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>2025-03-28</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@natialbertin/video/7486126147235777823</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B14" t="n">
         <v>377</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C14" t="n">
         <v>28</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D14" t="n">
         <v>9</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>2</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Time for a much needed book rotation to get ready for spring time.
 @Montessori &amp; Me
 #booktok #bookshelf</t>
         </is>
       </c>
-      <c r="H5" t="n">
+      <c r="H14" t="n">
         <v>9.814323607427056</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I14" t="n">
         <v>7.427055702917771</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>2.387267904509284</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L14" t="n">
         <v>0.5305039787798408</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2025-03-27</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@natialbertin/video/7485926787386576159</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B15" t="n">
         <v>240</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C15" t="n">
         <v>21</v>
       </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr">
         <is>
           <t>Time for a much needed book rotation to get ready for spring time.
 @Montessori &amp; Me
 #booktok #bookshelf</t>
         </is>
       </c>
-      <c r="H6" t="n">
+      <c r="H15" t="n">
         <v>8.75</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I15" t="n">
         <v>8.75</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2025-03-27</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@natialbertin/photo/7485512523899358494</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B16" t="n">
         <v>289</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C16" t="n">
         <v>15</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D16" t="n">
         <v>5</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>2</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Recent pr as a content creator with less than 5k followers.
 #prpackages #prpackage #prhaul #contentcreator</t>
         </is>
       </c>
-      <c r="H7" t="n">
+      <c r="H16" t="n">
         <v>6.920415224913495</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I16" t="n">
         <v>5.190311418685121</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>1.730103806228374</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L16" t="n">
         <v>0.6920415224913495</v>
       </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2025-03-26</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@natialbertin/video/7485384622071713054</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B17" t="n">
         <v>4471</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C17" t="n">
         <v>344</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D17" t="n">
         <v>12</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>50</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Come make a Easter basket for my cars loving toddler.
 Everything linked on my Amazon store front.</t>
         </is>
       </c>
-      <c r="H8" t="n">
+      <c r="H17" t="n">
         <v>7.962424513531649</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I17" t="n">
         <v>7.694028181614851</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>0.2683963319167971</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L17" t="n">
         <v>1.118318049653321</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2025-03-25</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@natialbertin/video/7485118813038480670</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B18" t="n">
         <v>327</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C18" t="n">
         <v>30</v>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>1</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Come make a Easter basket for my cars loving toddler.
 Everything linked on my Amazon store front.</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="H18" t="n">
         <v>9.174311926605505</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I18" t="n">
         <v>9.174311926605505</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
         <v>0.3058103975535168</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>2025-03-25</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@natialbertin/video/7485006302914039070</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B19" t="n">
         <v>446</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C19" t="n">
         <v>32</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D19" t="n">
         <v>4</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>1</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Toddler shoes rotation for spring.
 #toddlersoftiktok #toddlershoes #toddlersneakerhead</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H19" t="n">
         <v>8.071748878923767</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I19" t="n">
         <v>7.174887892376682</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>0.8968609865470852</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L19" t="n">
         <v>0.2242152466367713</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>2025-03-24</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@natialbertin/video/7484807103643667742</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B20" t="n">
         <v>345</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C20" t="n">
         <v>18</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D20" t="n">
         <v>8</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="inlineStr">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>Spend the morning with us as a Sahm living in Florida.
 #sahmlife #sahmsoftiktok #sahmtok #florida #sahmvlogs</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H20" t="n">
         <v>7.536231884057972</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I20" t="n">
         <v>5.217391304347826</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>2.318840579710145</v>
       </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>2025-03-24</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@natialbertin/video/7484630640038546719</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B21" t="n">
         <v>469</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C21" t="n">
         <v>49</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D21" t="n">
         <v>2</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>1</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>Let’s unbox my @rhode skin order with me.
 #unboxing #rhodeskin #rhodeskincare #rhodeunboxing</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H21" t="n">
         <v>10.87420042643923</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I21" t="n">
         <v>10.44776119402985</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>0.4264392324093816</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L21" t="n">
         <v>0.2132196162046908</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>2025-03-23</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@natialbertin/photo/7484379450054905119</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B22" t="n">
         <v>493</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C22" t="n">
         <v>24</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D22" t="n">
         <v>4</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>3</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>Some highlights from my Pinterest board for my sons second birthday and how they actually came out.</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H22" t="n">
         <v>5.679513184584178</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I22" t="n">
         <v>4.86815415821501</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>0.8113590263691683</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L22" t="n">
         <v>0.6085192697768762</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>2025-03-23</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@natialbertin/video/7484239244173561119</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B23" t="n">
         <v>812</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C23" t="n">
         <v>58</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D23" t="n">
         <v>8</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>11</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>Chugga Chugga two two party favor idea. #secondbirthdaythemes #birthdaparty #partyfavors</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H23" t="n">
         <v>8.128078817733989</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I23" t="n">
         <v>7.142857142857142</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>0.9852216748768473</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L23" t="n">
         <v>1.354679802955665</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>2025-03-22</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@natialbertin/video/7484080083016142110</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B24" t="n">
         <v>982</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C24" t="n">
         <v>86</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D24" t="n">
         <v>17</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>17</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>My son is obsessed with trains so this year he had a Chugga Chugga two two birthday party.</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H24" t="n">
         <v>10.4887983706721</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I24" t="n">
         <v>8.757637474541752</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>1.731160896130346</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L24" t="n">
         <v>1.731160896130346</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>2025-03-22</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@natialbertin/video/7483587359439719710</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B25" t="n">
         <v>341</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C25" t="n">
         <v>7</v>
       </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>1</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>The toner pads that treats and reduces the pores.
 #skincare #skincareroutine #skincaretips #skincareproduct</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H25" t="n">
         <v>2.052785923753666</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I25" t="n">
         <v>2.052785923753666</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
         <v>0.2932551319648094</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>2025-03-20</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@natialbertin/photo/7483514828829560095</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B26" t="n">
         <v>378</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C26" t="n">
         <v>39</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D26" t="n">
         <v>6</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>1</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>Everything that I got for my birthday as a millennial.
 #birthdaygirl #birthdayhaul #whatigotformybirthday #haul</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="H26" t="n">
         <v>11.9047619047619</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I26" t="n">
         <v>10.31746031746032</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>1.587301587301587</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L26" t="n">
         <v>0.2645502645502645</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>2025-03-19</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@natialbertin/video/7483321248160714015</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B27" t="n">
         <v>759</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C27" t="n">
         <v>9</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D27" t="n">
         <v>2</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="inlineStr">
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="inlineStr">
         <is>
           <t>The serum that will minimize
 your pores in only one week.
 #skincare #skincareroutine #skincaretips</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="H27" t="n">
         <v>1.449275362318841</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I27" t="n">
         <v>1.185770750988142</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>0.2635046113306983</v>
       </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2025-03-19</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@natialbertin/video/7483274016241880350</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B28" t="n">
         <v>353</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C28" t="n">
         <v>23</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D28" t="n">
         <v>2</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>1</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>Come shopping with me to get 3 full outfits for my family with a 200 dollars budget.
 #shoppinghaul #shoppingvlog</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="H28" t="n">
         <v>7.08215297450425</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I28" t="n">
         <v>6.515580736543909</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>0.56657223796034</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L28" t="n">
         <v>0.28328611898017</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2025-03-19</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@natialbertin/video/7482795684379348254</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B29" t="n">
         <v>401</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C29" t="n">
         <v>31</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D29" t="n">
         <v>4</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="inlineStr">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="inlineStr">
         <is>
           <t>POV: it’s my sons second birthday and we are neighbors with Mickey Mouse.
 #toddlermom #toddlersoftiktok</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="H29" t="n">
         <v>8.728179551122196</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I29" t="n">
         <v>7.73067331670823</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>0.997506234413965</v>
       </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>2025-03-18</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@natialbertin/video/7482196681040104735</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B30" t="n">
         <v>837</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C30" t="n">
         <v>47</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D30" t="n">
         <v>11</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>1</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>The little moments that I want to cherish forever.
 #toddlersoftiktok #toddlerbirthday</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H30" t="n">
         <v>6.929510155316606</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I30" t="n">
         <v>5.615292712066906</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>1.314217443249701</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L30" t="n">
         <v>0.1194743130227001</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>2025-03-16</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@natialbertin/video/7481493086456057119</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B31" t="n">
         <v>531</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C31" t="n">
         <v>38</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D31" t="n">
         <v>6</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="inlineStr">
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="inlineStr">
         <is>
           <t>Is the night before my son turns two and I’m sobbing thinking how time has flown away.
 #secondbirthday</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H31" t="n">
         <v>8.286252354048965</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I31" t="n">
         <v>7.156308851224106</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>1.129943502824859</v>
       </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>2025-03-14</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@natialbertin/video/7481292831697440030</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B32" t="n">
         <v>389</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C32" t="n">
         <v>35</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D32" t="n">
         <v>10</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="inlineStr">
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="inlineStr">
         <is>
           <t>Come get my nails done with me as a basic mom trying to get in to nail art.
 #nailsoftiktok #nailart #nails #nailvlog</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H32" t="n">
         <v>11.5681233933162</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I32" t="n">
         <v>8.997429305912597</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>2.570694087403599</v>
       </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>2025-03-13</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@natialbertin/video/7480712406558100766</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B33" t="n">
         <v>317</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C33" t="n">
         <v>24</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D33" t="n">
         <v>5</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>1</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>Spend the morning with us as a Sahm that doesn’t like to stay at home with a zero dollar budget.
 #sahmlife</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H33" t="n">
         <v>9.148264984227129</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I33" t="n">
         <v>7.570977917981073</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>1.577287066246057</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L33" t="n">
         <v>0.3154574132492113</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>2025-03-12</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@natialbertin/video/7480603587370945822</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B34" t="n">
         <v>330</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C34" t="n">
         <v>20</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D34" t="n">
         <v>2</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>3</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>This is the secret for a perfect skin care but now in the palm of your hands as a travel size.
 #skincare #skincareroutine</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H34" t="n">
         <v>6.666666666666667</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I34" t="n">
         <v>6.060606060606061</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>0.6060606060606061</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L34" t="n">
         <v>0.9090909090909091</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>2025-03-12</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@natialbertin/video/7480381157805247774</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B35" t="n">
         <v>199</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C35" t="n">
         <v>15</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D35" t="n">
         <v>2</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="inlineStr">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="inlineStr">
         <is>
           <t>Temu unboxing haul.
 #temuhaul #temufinds #temuunboxing #temu #unboxing #haul</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H35" t="n">
         <v>8.542713567839195</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I35" t="n">
         <v>7.537688442211055</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>1.005025125628141</v>
       </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2025-03-11</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@natialbertin/video/7480177618440949023</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B36" t="n">
         <v>339</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C36" t="n">
         <v>9</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D36" t="n">
         <v>1</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>1</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>Morning moisturizer for a healthy and soft skin all day.
 #skincare #skincareroutine #skincareroutine</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H36" t="n">
         <v>2.949852507374631</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I36" t="n">
         <v>2.654867256637168</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>0.2949852507374631</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L36" t="n">
         <v>0.2949852507374631</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2025-03-10</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@natialbertin/video/7480002889813888286</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B37" t="n">
         <v>8354</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C37" t="n">
         <v>416</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D37" t="n">
         <v>11</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>23</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>The way I ran to my target trying to find this Easter cars for my cars obsessed toddler is unbelievable.
 #cars #mcqueen</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H37" t="n">
         <v>5.111323916686617</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I37" t="n">
         <v>4.979650466842232</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>0.1316734498443859</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L37" t="n">
         <v>0.2753172133109887</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>2025-03-10</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@natialbertin/video/7479819584288148767</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B38" t="n">
         <v>294</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C38" t="n">
         <v>10</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D38" t="n">
         <v>1</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="inlineStr">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="inlineStr">
         <is>
           <t>The way I ran to my target trying to find this Easter cars for my cars obsessed toddler is unbelievable.
 #cars #mcqueen</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H38" t="n">
         <v>3.741496598639456</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I38" t="n">
         <v>3.401360544217687</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>0.3401360544217687</v>
       </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>2025-03-09</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@natialbertin/video/7478699838880664862</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B39" t="n">
         <v>436</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C39" t="n">
         <v>50</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D39" t="n">
         <v>10</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>3</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>My kind of rich is simple and always involves my best friend.
 #bookstore #booktok #bookish #bestfriend</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H39" t="n">
         <v>13.76146788990826</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I39" t="n">
         <v>11.46788990825688</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>2.293577981651376</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L39" t="n">
         <v>0.6880733944954129</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>2025-03-06</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@natialbertin/video/7478343946683321630</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B40" t="n">
         <v>441</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C40" t="n">
         <v>19</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D40" t="n">
         <v>3</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>2</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>Stepping up my vloging game.
 #unboxing #unboxingvideo #cameraunboxing</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="H40" t="n">
         <v>4.988662131519274</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I40" t="n">
         <v>4.308390022675737</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>0.6802721088435374</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L40" t="n">
         <v>0.453514739229025</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>2025-03-06</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@natialbertin/video/7477961950048079135</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B41" t="n">
         <v>477</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C41" t="n">
         <v>19</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D41" t="n">
         <v>9</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>10</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>Super easy set up for a cute sensory play with farm animals.
 @playsmol
 #sensoryactivities #sensoryplayideas</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H41" t="n">
         <v>5.870020964360587</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I41" t="n">
         <v>3.983228511530398</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>1.886792452830189</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L41" t="n">
         <v>2.09643605870021</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>2025-03-04</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@natialbertin/video/7477685958301830431</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B42" t="n">
         <v>826</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C42" t="n">
         <v>35</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D42" t="n">
         <v>7</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>3</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>Come with me to once upon a child to try to make some money for my sons birthday.
 #thrift #onceuponachild</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H42" t="n">
         <v>5.084745762711865</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I42" t="n">
         <v>4.23728813559322</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>0.847457627118644</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L42" t="n">
         <v>0.3631961259079903</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>2025-03-04</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@natialbertin/video/7477217362324835615</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B43" t="n">
         <v>1373</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C43" t="n">
         <v>73</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D43" t="n">
         <v>10</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>4</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>TikTok made me buy it.
 @sephora
 #sephora #sephorahaul #tiktokmademebuyit #viralproducts</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H43" t="n">
         <v>6.04515659140568</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I43" t="n">
         <v>5.316824471959213</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>0.7283321194464676</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L43" t="n">
         <v>0.291332847778587</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>2025-03-02</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@natialbertin/video/7476858749701885214</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B44" t="n">
         <v>401</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C44" t="n">
         <v>34</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D44" t="n">
         <v>4</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>1</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>Let’s run some errands while I have some free time and can actually get things done quickly because I’m not running after my toddler.</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="H44" t="n">
         <v>9.476309226932669</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I44" t="n">
         <v>8.478802992518704</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>0.997506234413965</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L44" t="n">
         <v>0.2493765586034913</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>2025-03-02</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@natialbertin/video/7476522987064266014</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B45" t="n">
         <v>231</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C45" t="n">
         <v>9</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D45" t="n">
         <v>1</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="inlineStr">
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="inlineStr">
         <is>
           <t>Finally found the skin care routine that’s easy and perfect for my skin type.
 @Maelove Skincare
 #skincareroutine</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="H45" t="n">
         <v>4.329004329004329</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I45" t="n">
         <v>3.896103896103896</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
         <v>0.4329004329004329</v>
       </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>2025-03-01</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@natialbertin/photo/7476487314718412063</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B46" t="n">
         <v>533</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C46" t="n">
         <v>42</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D46" t="n">
         <v>18</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
         <v>3</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>Pr packages of the week as a small content creator that just keep showing up.
 #prpackages #prpackageshaul</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="H46" t="n">
         <v>11.25703564727955</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I46" t="n">
         <v>7.879924953095685</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
         <v>3.377110694183865</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L46" t="n">
         <v>0.5628517823639775</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>2025-03-01</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@natialbertin/video/7476240762968067358</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B47" t="n">
         <v>664</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C47" t="n">
         <v>36</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D47" t="n">
         <v>5</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="inlineStr">
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="inlineStr">
         <is>
           <t>Pr packages of the week as a small content creator that just keep showing up.
 #prpackages #prpackageshaul</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="H47" t="n">
         <v>6.174698795180722</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I47" t="n">
         <v>5.421686746987952</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
         <v>0.7530120481927711</v>
       </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>2025-02-28</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@natialbertin/video/7475909106230922526</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B48" t="n">
         <v>484</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C48" t="n">
         <v>45</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D48" t="n">
         <v>13</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>3</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>The most unexpected haul, I went to return something and 44 dollars later this is what I got.
 #marshalls</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="H48" t="n">
         <v>11.98347107438017</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I48" t="n">
         <v>9.297520661157025</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
         <v>2.685950413223141</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L48" t="n">
         <v>0.6198347107438017</v>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>2025-02-27</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@natialbertin/video/7475730431800003871</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B49" t="n">
         <v>851</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C49" t="n">
         <v>37</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D49" t="n">
         <v>7</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
         <v>3</v>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>Come make my soon Easter basket with the viral giant Easter egg.
 #easterbasket #easterbasketideas</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="H49" t="n">
         <v>5.170387779083431</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I49" t="n">
         <v>4.347826086956522</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
         <v>0.8225616921269095</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L49" t="n">
         <v>0.3525264394829613</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>2025-02-26</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@natialbertin/video/7475481551761919263</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B50" t="n">
         <v>206</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C50" t="n">
         <v>15</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D50" t="n">
         <v>6</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="inlineStr">
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="inlineStr">
         <is>
           <t>The target run just got way more colorful.
 @Dabble &amp; Dollop
 #targetfinds #targethaul #targetnewarrivals #targetnewin</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="H50" t="n">
         <v>10.19417475728155</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I50" t="n">
         <v>7.281553398058252</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
         <v>2.912621359223301</v>
       </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
         <is>
           <t>2025-02-26</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@natialbertin/video/7475392212835061023</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B51" t="n">
         <v>726</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C51" t="n">
         <v>46</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D51" t="n">
         <v>3</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
         <v>2</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>Easter basket gift idea for coffee lovers.
 #easterbasket #easterbasketideas #easterbaskets</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="H51" t="n">
         <v>6.749311294765841</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I51" t="n">
         <v>6.336088154269973</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
         <v>0.4132231404958678</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L51" t="n">
         <v>0.2754820936639119</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>2025-02-26</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@natialbertin/photo/7474761712416148767</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>522</v>
-      </c>
-      <c r="C43" t="n">
-        <v>27</v>
-      </c>
-      <c r="D43" t="n">
-        <v>9</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>1</v>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>What’s on my sons second birthday wish list fashion edition.
-#toddlerfashion #toddlerstyle #toddleroutfit</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>6.896551724137931</v>
-      </c>
-      <c r="I43" t="n">
-        <v>5.172413793103448</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>1.724137931034483</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0.1915708812260536</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>2025-02-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@natialbertin/video/7474625832225426718</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>407</v>
-      </c>
-      <c r="C44" t="n">
-        <v>23</v>
-      </c>
-      <c r="D44" t="n">
-        <v>2</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>That’s what 50 dollars worth of @Temu products looks like.
-#temu #temufinds #temuhaul #temupurchases</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>6.142506142506143</v>
-      </c>
-      <c r="I44" t="n">
-        <v>5.651105651105651</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.4914004914004914</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>2025-02-23</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@natialbertin/photo/7474321326895942942</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>419</v>
-      </c>
-      <c r="C45" t="n">
-        <v>27</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>2</v>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Some of my favorite finds for Easter basket this year.
-Everything linked on my Amazon store front.
-#easterbasket</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>6.443914081145586</v>
-      </c>
-      <c r="I45" t="n">
-        <v>6.443914081145586</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0.477326968973747</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>2025-02-23</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@natialbertin/video/7474254298751225118</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>452</v>
-      </c>
-      <c r="C46" t="n">
-        <v>27</v>
-      </c>
-      <c r="D46" t="n">
-        <v>3</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Pack with me to go to the playground while having all the essentials but finally hands free.
-@tushbaby</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>6.637168141592921</v>
-      </c>
-      <c r="I46" t="n">
-        <v>5.973451327433628</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.6637168141592921</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>2025-02-22</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@natialbertin/video/7473970536327007518</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>397</v>
-      </c>
-      <c r="C47" t="n">
-        <v>20</v>
-      </c>
-      <c r="D47" t="n">
-        <v>5</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Come grocery shop at @target as a family of three.
-#targetrun #targetfinds #targetgroceries #targetgroceryhaul</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>6.297229219143577</v>
-      </c>
-      <c r="I47" t="n">
-        <v>5.037783375314862</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>1.259445843828715</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>2025-02-22</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@natialbertin/photo/7473899258739952926</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>386</v>
-      </c>
-      <c r="C48" t="n">
-        <v>46</v>
-      </c>
-      <c r="D48" t="n">
-        <v>4</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>3</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Romanticizing our morning because out of the photos everything was a chaos.
-#morningroutine #morning</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>12.95336787564767</v>
-      </c>
-      <c r="I48" t="n">
-        <v>11.91709844559585</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>1.036269430051814</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0.7772020725388601</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>2025-02-22</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@natialbertin/video/7473498967335079198</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>558</v>
-      </c>
-      <c r="C49" t="n">
-        <v>37</v>
-      </c>
-      <c r="D49" t="n">
-        <v>5</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>4</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>When you have a vision and can’t find exactly what you want you make it yourself.
-Make party hats with me.</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>7.526881720430108</v>
-      </c>
-      <c r="I49" t="n">
-        <v>6.630824372759856</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.8960573476702508</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0.7168458781362007</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>2025-02-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@natialbertin/photo/7473234283218406698</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>351</v>
-      </c>
-      <c r="C50" t="n">
-        <v>20</v>
-      </c>
-      <c r="D50" t="n">
-        <v>10</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>4</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>A little haul of the pr I got this week as a small content creator.
-#prpackage #prpackagehaul #contentcreator</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>8.547008547008547</v>
-      </c>
-      <c r="I50" t="n">
-        <v>5.698005698005698</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>2.849002849002849</v>
-      </c>
-      <c r="L50" t="n">
-        <v>1.13960113960114</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>2025-02-20</t>
         </is>
       </c>
     </row>
